--- a/server/xlsx/1-1.xlsx
+++ b/server/xlsx/1-1.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28020" windowHeight="13200" activeTab="7"/>
+    <workbookView windowWidth="27880" windowHeight="13040" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="微型" sheetId="9" r:id="rId1"/>
-    <sheet name="小型车" sheetId="2" r:id="rId2"/>
-    <sheet name="紧凑型车" sheetId="3" r:id="rId3"/>
-    <sheet name="中型" sheetId="4" r:id="rId4"/>
-    <sheet name="中大型" sheetId="5" r:id="rId5"/>
-    <sheet name="MPV" sheetId="6" r:id="rId6"/>
-    <sheet name="SUV" sheetId="7" r:id="rId7"/>
-    <sheet name="跑车" sheetId="10" r:id="rId8"/>
+    <sheet name="小微型车" sheetId="9" r:id="rId1"/>
+    <sheet name="紧凑型车" sheetId="3" r:id="rId2"/>
+    <sheet name="中型" sheetId="4" r:id="rId3"/>
+    <sheet name="中大型" sheetId="5" r:id="rId4"/>
+    <sheet name="MPV" sheetId="6" r:id="rId5"/>
+    <sheet name="SUV" sheetId="7" r:id="rId6"/>
+    <sheet name="新能源汽车" sheetId="10" r:id="rId7"/>
+    <sheet name="纯电动汽车" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>月份</t>
   </si>
@@ -29,43 +29,52 @@
     <t>销量</t>
   </si>
   <si>
-    <t>七月</t>
+    <t>2019-08</t>
   </si>
   <si>
-    <t>八月</t>
+    <t>2019-09</t>
   </si>
   <si>
-    <t>九月</t>
+    <t>2019-10</t>
   </si>
   <si>
-    <t>十月</t>
+    <t>2019-11</t>
   </si>
   <si>
-    <t>十一月</t>
+    <t>2019-12</t>
   </si>
   <si>
-    <t>十二月</t>
+    <t>2020-01</t>
   </si>
   <si>
-    <t>一月</t>
+    <t>2020-02</t>
   </si>
   <si>
-    <t>二月</t>
+    <t>2020-03</t>
   </si>
   <si>
-    <t>三月</t>
+    <t>2020-04</t>
   </si>
   <si>
-    <t>四月</t>
+    <t>2020-05</t>
   </si>
   <si>
-    <t>五月</t>
+    <t>2020-06</t>
   </si>
   <si>
-    <t>六月</t>
+    <t>2020-07</t>
   </si>
   <si>
-    <t>7月</t>
+    <t>2020-08</t>
+  </si>
+  <si>
+    <t>2020-09</t>
+  </si>
+  <si>
+    <t>2020-10</t>
+  </si>
+  <si>
+    <t>2020-11</t>
   </si>
 </sst>
 </file>
@@ -73,12 +82,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,33 +96,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="华文宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFB5CEA8"/>
-      <name val="Menlo"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="华文宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,8 +117,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,9 +148,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,48 +171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,15 +181,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,7 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,6 +208,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -258,13 +256,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,37 +424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,115 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,17 +459,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,25 +478,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,17 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -549,169 +521,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1031,10 +1023,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -1051,104 +1043,128 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>13361</v>
+      <c r="B2" s="3">
+        <v>68701</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>14794</v>
+      <c r="B3" s="3">
+        <v>67981</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>11988</v>
+      <c r="B4" s="3">
+        <v>66806</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>10633</v>
+      <c r="B5" s="3">
+        <v>73727</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>15685</v>
+      <c r="B6" s="3">
+        <v>95022</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>5600</v>
+      <c r="B7" s="3">
+        <v>48064</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>4342</v>
+      <c r="B8" s="3">
+        <v>9627</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>1700</v>
+      <c r="B9" s="3">
+        <v>48166</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>8296</v>
+      <c r="B10" s="3">
+        <v>50537</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>7402</v>
+      <c r="B11" s="3">
+        <v>49601</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>11167</v>
+      <c r="B12" s="3">
+        <v>56112</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>15867</v>
+      <c r="B13" s="3">
+        <v>55184</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>34</v>
+      <c r="B14" s="3">
+        <v>61926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>89100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>103064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>111070</v>
       </c>
     </row>
   </sheetData>
@@ -1160,10 +1176,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -1181,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>47512</v>
+        <v>419231</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1189,15 +1205,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>38894</v>
+        <v>514836</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
-        <v>47408</v>
+      <c r="B4" s="3">
+        <v>495106</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1205,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>35760</v>
+        <v>523299</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1213,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>52831</v>
+        <v>526539</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1221,7 +1237,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3">
-        <v>17900</v>
+        <v>415988</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1229,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>54118</v>
+        <v>48727</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1237,7 +1253,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>7383</v>
+        <v>250192</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1245,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>36147</v>
+        <v>411973</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1253,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>42569</v>
+        <v>448810</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1261,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>38434</v>
+        <v>466488</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1269,15 +1285,39 @@
         <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>38677</v>
+        <v>420085</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>3455</v>
+      <c r="B14" s="3">
+        <v>450810</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>525831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>517021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>577427</v>
       </c>
     </row>
   </sheetData>
@@ -1289,10 +1329,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -1309,104 +1349,128 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>470087</v>
+      <c r="B2" s="3">
+        <v>161700</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>416360</v>
+      <c r="B3" s="3">
+        <v>187218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>432387</v>
+      <c r="B4" s="3">
+        <v>187462</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>493845</v>
+      <c r="B5" s="3">
+        <v>215485</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>621892</v>
+      <c r="B6" s="3">
+        <v>217538</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>367600</v>
+      <c r="B7" s="3">
+        <v>169334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>512652</v>
+      <c r="B8" s="3">
+        <v>17230</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>57221</v>
+      <c r="B9" s="3">
+        <v>99477</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>300118</v>
+      <c r="B10" s="3">
+        <v>161964</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>455193</v>
+      <c r="B11" s="3">
+        <v>165100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>485980</v>
+      <c r="B12" s="3">
+        <v>187017</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>498244</v>
+      <c r="B13" s="3">
+        <v>192676</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>234234</v>
+      <c r="B14" s="3">
+        <v>191551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>225060</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>206661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>222244</v>
       </c>
     </row>
   </sheetData>
@@ -1418,10 +1482,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -1438,104 +1502,128 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>141595</v>
+      <c r="B2" s="3">
+        <v>51046</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>140820</v>
+      <c r="B3" s="3">
+        <v>58028</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>154815</v>
+      <c r="B4" s="3">
+        <v>53555</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>173733</v>
+      <c r="B5" s="3">
+        <v>51868</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>214242</v>
+      <c r="B6" s="3">
+        <v>50837</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>160298</v>
+      <c r="B7" s="3">
+        <v>43043</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>170276</v>
+      <c r="B8" s="3">
+        <v>9307</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>17887</v>
+      <c r="B9" s="3">
+        <v>42809</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>100998</v>
+      <c r="B10" s="3">
+        <v>49619</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>163965</v>
+      <c r="B11" s="3">
+        <v>51629</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>162528</v>
+      <c r="B12" s="3">
+        <v>53751</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>188613</v>
+      <c r="B13" s="3">
+        <v>56468</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>111</v>
+      <c r="B14" s="3">
+        <v>56492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>53140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>48720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>59308</v>
       </c>
     </row>
   </sheetData>
@@ -1547,10 +1635,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -1567,104 +1655,128 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>45383</v>
+      <c r="B2" s="3">
+        <v>128187</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>31273</v>
+      <c r="B3" s="3">
+        <v>157099</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>56654</v>
+      <c r="B4" s="3">
+        <v>158766</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>50273</v>
+      <c r="B5" s="3">
+        <v>156390</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>51868</v>
+      <c r="B6" s="3">
+        <v>192987</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>42700</v>
+      <c r="B7" s="3">
+        <v>95688</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>43043</v>
+      <c r="B8" s="3">
+        <v>15546</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>9903</v>
+      <c r="B9" s="3">
+        <v>61406</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>42809</v>
+      <c r="B10" s="3">
+        <v>100945</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>49619</v>
+      <c r="B11" s="3">
+        <v>121291</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>51629</v>
+      <c r="B12" s="3">
+        <v>121489</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>53751</v>
+      <c r="B13" s="3">
+        <v>120982</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>896234</v>
+      <c r="B14" s="3">
+        <v>135379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>148997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>158228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>163583</v>
       </c>
     </row>
   </sheetData>
@@ -1676,10 +1788,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -1696,104 +1808,128 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>102935</v>
+      <c r="B2" s="3">
+        <v>409404</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>103537</v>
+      <c r="B3" s="3">
+        <v>462857</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>112060</v>
+      <c r="B4" s="3">
+        <v>486834</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>114295</v>
+      <c r="B5" s="3">
+        <v>538898</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>119957</v>
+      <c r="B6" s="3">
+        <v>555846</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>100400</v>
+      <c r="B7" s="3">
+        <v>481623</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>96599</v>
+      <c r="B8" s="3">
+        <v>65322</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>16648</v>
+      <c r="B9" s="3">
+        <v>276864</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>62033</v>
+      <c r="B10" s="3">
+        <v>429435</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>99034</v>
+      <c r="B11" s="3">
+        <v>475131</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>118361</v>
+      <c r="B12" s="3">
+        <v>480142</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>117124</v>
+      <c r="B13" s="3">
+        <v>472390</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>8974</v>
+      <c r="B14" s="3">
+        <v>488429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>620732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>634276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>711632</v>
       </c>
     </row>
   </sheetData>
@@ -1805,139 +1941,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>468835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>479164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>526352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>502013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>619198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4">
-        <v>186200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4">
-        <v>551150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4">
-        <v>88916</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
-        <v>299240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
-        <v>431399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4">
-        <v>482305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4">
-        <v>497711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>8234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
@@ -1957,104 +1964,284 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>468835</v>
+      <c r="B2" s="3">
+        <v>85000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>464</v>
+      <c r="B3" s="3">
+        <v>80000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>526352</v>
+      <c r="B4" s="3">
+        <v>75000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>502013</v>
+      <c r="B5" s="3">
+        <v>95000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>619198</v>
+      <c r="B6" s="3">
+        <v>163000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>11111200</v>
+      <c r="B7" s="3">
+        <v>179000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>551150</v>
+      <c r="B8" s="3">
+        <v>12900</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>88916</v>
+      <c r="B9" s="3">
+        <v>53000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>299240</v>
+      <c r="B10" s="3">
+        <v>72000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>99</v>
+      <c r="B11" s="3">
+        <v>82000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>482305</v>
+      <c r="B12" s="3">
+        <v>104000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>7711</v>
+      <c r="B13" s="3">
+        <v>98000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>88</v>
+      <c r="B14" s="3">
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="10.1333333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>151000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>167000</v>
       </c>
     </row>
   </sheetData>
